--- a/6. Conditonal_Formatting.xlsx
+++ b/6. Conditonal_Formatting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B588A0E-0E64-41E4-A36C-3B504D7374C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F0E73-5E52-497A-BBD6-7B66327CC881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37CF7066-C407-4A6A-9873-5840C0489694}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Chats Handled</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>CSAT</t>
+  </si>
+  <si>
+    <t>Netutral</t>
+  </si>
+  <si>
+    <t>DSAT</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,14 +499,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD7FC82-C053-492F-AFA6-4E8A115E453D}">
-  <dimension ref="A1"/>
+  <dimension ref="H7:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1234</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>44</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>1235</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>1236</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>1237</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>1238</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>1239</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>1240</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>1241</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>1242</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>1243</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
